--- a/experiment/linear/ex9_1_1/compare/M-Estacionario/ex9_1_1_M-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_1/compare/M-Estacionario/ex9_1_1_M-Estacionario.xlsx
@@ -485,13 +485,13 @@
         <v>105.60911028037384</v>
       </c>
       <c r="E2">
-        <v>0.00153414</v>
+        <v>0.00191538</v>
       </c>
       <c r="F2">
-        <v>0.01694961</v>
+        <v>0.02893401</v>
       </c>
       <c r="G2">
-        <v>0.0019493797262416894</v>
+        <v>0.0023574651136363638</v>
       </c>
       <c r="H2">
         <v>1963</v>
@@ -523,13 +523,13 @@
         <v>105.60910875804684</v>
       </c>
       <c r="E3">
-        <v>0.00480483</v>
+        <v>0.00461511</v>
       </c>
       <c r="F3">
-        <v>0.01246113</v>
+        <v>0.01011735</v>
       </c>
       <c r="G3">
-        <v>0.005770775369515011</v>
+        <v>0.005906208510638298</v>
       </c>
       <c r="H3">
         <v>6116</v>
